--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -843,7 +843,7 @@
                   <c:v>5927743.8700000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6856257.3899999997</c:v>
+                  <c:v>7865853.0800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172208640"/>
-        <c:axId val="278546688"/>
+        <c:axId val="117581312"/>
+        <c:axId val="402032896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172208640"/>
+        <c:axId val="117581312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278546688"/>
+        <c:crossAx val="402032896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278546688"/>
+        <c:axId val="402032896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172208640"/>
+        <c:crossAx val="117581312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,7 +1032,7 @@
                   <c:v>244051.33000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>928513.51999999955</c:v>
+                  <c:v>1948831.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,11 +1047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172209664"/>
-        <c:axId val="278548416"/>
+        <c:axId val="117582336"/>
+        <c:axId val="402034624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172209664"/>
+        <c:axId val="117582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278548416"/>
+        <c:crossAx val="402034624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278548416"/>
+        <c:axId val="402034624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172209664"/>
+        <c:crossAx val="117582336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,16 +1678,16 @@
         <v>201703</v>
       </c>
       <c r="B13" s="3">
-        <v>979623</v>
+        <v>2116382</v>
       </c>
       <c r="C13" s="3">
-        <v>928513.51999999955</v>
+        <v>1948831.21</v>
       </c>
       <c r="D13" s="3">
-        <v>7639223</v>
+        <v>8765260</v>
       </c>
       <c r="E13" s="3">
-        <v>6856257.3899999997</v>
+        <v>7865853.0800000001</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="期权做市每月盈亏统计" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>月份</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -35,15 +36,28 @@
     <t>汇总盈亏(包含手续费)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>总回购收入</t>
+  </si>
+  <si>
+    <t>总交易费用</t>
+  </si>
+  <si>
+    <t>Orc理论盈亏</t>
+  </si>
+  <si>
+    <t>净理论盈亏</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +221,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -511,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,8 +690,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,8 +709,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -682,6 +748,8 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="43"/>
+    <cellStyle name="常规 3" xfId="42"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -760,10 +828,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$13</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -799,16 +867,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>201703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$13</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -844,6 +915,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7865853.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8289827.3700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117581312"/>
-        <c:axId val="402032896"/>
+        <c:axId val="67971072"/>
+        <c:axId val="280119552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117581312"/>
+        <c:axId val="67971072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402032896"/>
+        <c:crossAx val="280119552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402032896"/>
+        <c:axId val="280119552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117581312"/>
+        <c:crossAx val="67971072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,10 +1023,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$13</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -988,16 +1062,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>201703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$13</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1033,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1948831.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>423974.29000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,11 +1127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117582336"/>
-        <c:axId val="402034624"/>
+        <c:axId val="67915776"/>
+        <c:axId val="280121280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117582336"/>
+        <c:axId val="67915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402034624"/>
+        <c:crossAx val="280121280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402034624"/>
+        <c:axId val="280121280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117582336"/>
+        <c:crossAx val="67915776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1673,7 +1753,7 @@
         <v>5927743.8700000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>201703</v>
       </c>
@@ -1688,6 +1768,23 @@
       </c>
       <c r="E13" s="3">
         <v>7865853.0800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>201704</v>
+      </c>
+      <c r="B14" s="3">
+        <v>487197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>423974.29000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9252457</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8289827.3700000001</v>
       </c>
     </row>
   </sheetData>
@@ -1696,4 +1793,374 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C20:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="5">
+        <v>42825</v>
+      </c>
+      <c r="D21" s="6">
+        <v>210532.22000000009</v>
+      </c>
+      <c r="E21" s="6">
+        <v>330657.13</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4531653</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4200995.87</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="5">
+        <v>42830</v>
+      </c>
+      <c r="D22" s="6">
+        <v>213542.33000000007</v>
+      </c>
+      <c r="E22" s="6">
+        <v>335566.49</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4607254</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4271687.51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="5">
+        <v>42831</v>
+      </c>
+      <c r="D23" s="6">
+        <v>221941.09000000008</v>
+      </c>
+      <c r="E23" s="6">
+        <v>340138.04000000004</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4750855</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4410716.96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="5">
+        <v>42832</v>
+      </c>
+      <c r="D24" s="6">
+        <v>223269.85000000009</v>
+      </c>
+      <c r="E24" s="6">
+        <v>344676.25</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4747833</v>
+      </c>
+      <c r="G24" s="6">
+        <v>4403156.75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="5">
+        <v>42835</v>
+      </c>
+      <c r="D25" s="6">
+        <v>225799.02000000014</v>
+      </c>
+      <c r="E25" s="6">
+        <v>345620.62999999989</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4826169</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4480548.37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="5">
+        <v>42836</v>
+      </c>
+      <c r="D26" s="6">
+        <v>225799.02000000014</v>
+      </c>
+      <c r="E26" s="6">
+        <v>349838.24999999988</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4504932</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4155093.75</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="5">
+        <v>42837</v>
+      </c>
+      <c r="D27" s="6">
+        <v>226786.12000000011</v>
+      </c>
+      <c r="E27" s="6">
+        <v>352834.67999999993</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4724738</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4371903.32</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="5">
+        <v>42838</v>
+      </c>
+      <c r="D28" s="6">
+        <v>227755.70000000007</v>
+      </c>
+      <c r="E28" s="6">
+        <v>355872.19999999995</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4724738</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4368865.8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C29" s="5">
+        <v>42839</v>
+      </c>
+      <c r="D29" s="6">
+        <v>228624.04000000004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>358294.57999999996</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4705759</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4347464.42</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C30" s="5">
+        <v>42842</v>
+      </c>
+      <c r="D30" s="6">
+        <v>228624.04000000004</v>
+      </c>
+      <c r="E30" s="6">
+        <v>361256.06999999983</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4742042</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4380785.93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="5">
+        <v>42843</v>
+      </c>
+      <c r="D31" s="6">
+        <v>228853.76000000001</v>
+      </c>
+      <c r="E31" s="6">
+        <v>362603.66999999993</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4847762</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4485158.33</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="5">
+        <v>42844</v>
+      </c>
+      <c r="D32" s="6">
+        <v>229073.47999999998</v>
+      </c>
+      <c r="E32" s="6">
+        <v>366710.1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4893507</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4526796.9000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C33" s="5">
+        <v>42845</v>
+      </c>
+      <c r="D33" s="6">
+        <v>231005.54999999993</v>
+      </c>
+      <c r="E33" s="6">
+        <v>368148.69999999995</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5161164</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4793015.3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C34" s="5">
+        <v>42846</v>
+      </c>
+      <c r="D34" s="6">
+        <v>232240.86</v>
+      </c>
+      <c r="E34" s="6">
+        <v>372441.18000000005</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5023064</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4650622.82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C35" s="5">
+        <v>42849</v>
+      </c>
+      <c r="D35" s="6">
+        <v>232240.86</v>
+      </c>
+      <c r="E35" s="6">
+        <v>375722.50999999989</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4617942</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4242219.49</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C36" s="5">
+        <v>42850</v>
+      </c>
+      <c r="D36" s="6">
+        <v>233938.36</v>
+      </c>
+      <c r="E36" s="6">
+        <v>379667.52999999991</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4876083</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4496415.47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C37" s="5">
+        <v>42851</v>
+      </c>
+      <c r="D37" s="6">
+        <v>236234.89</v>
+      </c>
+      <c r="E37" s="6">
+        <v>386182.74999999988</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4968484</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4582301.25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C38" s="5">
+        <v>42852</v>
+      </c>
+      <c r="D38" s="6">
+        <v>246502.40000000002</v>
+      </c>
+      <c r="E38" s="6">
+        <v>390633.12999999989</v>
+      </c>
+      <c r="F38" s="6">
+        <v>5041490</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4650856.87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C39" s="5">
+        <v>42853</v>
+      </c>
+      <c r="D39" s="6">
+        <v>251023.27000000002</v>
+      </c>
+      <c r="E39" s="6">
+        <v>393879.83999999997</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5018850</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4624970.16</v>
+      </c>
+      <c r="J39" s="7">
+        <f>F39-F21</f>
+        <v>487197</v>
+      </c>
+      <c r="K39" s="7">
+        <f>G39-G21</f>
+        <v>423974.29000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -55,7 +55,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -712,10 +712,10 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -828,10 +828,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$14</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -870,16 +870,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>201704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$14</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -918,6 +921,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8289827.3700000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9729103.6199999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,11 +940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67971072"/>
-        <c:axId val="280119552"/>
+        <c:axId val="66791936"/>
+        <c:axId val="274811712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67971072"/>
+        <c:axId val="66791936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280119552"/>
+        <c:crossAx val="274811712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280119552"/>
+        <c:axId val="274811712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67971072"/>
+        <c:crossAx val="66791936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1023,10 +1029,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$14</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1065,16 +1071,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>201704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$14</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1113,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>423974.29000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1439276.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,11 +1139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67915776"/>
-        <c:axId val="280121280"/>
+        <c:axId val="66736128"/>
+        <c:axId val="274813440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67915776"/>
+        <c:axId val="66736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280121280"/>
+        <c:crossAx val="274813440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280121280"/>
+        <c:axId val="274813440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67915776"/>
+        <c:crossAx val="66736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1785,6 +1797,23 @@
       </c>
       <c r="E14" s="3">
         <v>8289827.3700000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>201705</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1536160</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1439276.25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10788617</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9729103.6199999992</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -821,17 +821,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>月度盈亏</c:v>
+            <c:v>总盈亏</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$15</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -873,16 +873,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>201705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201706</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$15</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -924,6 +930,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>9729103.6199999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10626245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10987557.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,11 +952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66791936"/>
-        <c:axId val="274811712"/>
+        <c:axId val="326603264"/>
+        <c:axId val="388668736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66791936"/>
+        <c:axId val="326603264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274811712"/>
+        <c:crossAx val="388668736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274811712"/>
+        <c:axId val="388668736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66791936"/>
+        <c:crossAx val="326603264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,15 +1036,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>每月盈亏</c:v>
+            <c:v>期权做市每月盈亏</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$15</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1074,16 +1086,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>201705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201706</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$15</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1125,6 +1143,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1439276.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>853898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>808241.5700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,11 +1163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66736128"/>
-        <c:axId val="274813440"/>
+        <c:axId val="326604288"/>
+        <c:axId val="421299328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66736128"/>
+        <c:axId val="326604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274813440"/>
+        <c:crossAx val="421299328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274813440"/>
+        <c:axId val="421299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66736128"/>
+        <c:crossAx val="326604288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,13 +1224,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1230,13 +1254,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1546,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1815,6 +1839,47 @@
       <c r="E15" s="3">
         <v>9729103.6199999992</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>201706</v>
+      </c>
+      <c r="B16" s="3">
+        <v>938497</v>
+      </c>
+      <c r="C16" s="3">
+        <v>853898</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11776155</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10626245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>201707</v>
+      </c>
+      <c r="B17" s="3">
+        <v>888189</v>
+      </c>
+      <c r="C17" s="3">
+        <v>808241.5700000003</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12225994</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10987557.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -53,11 +53,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +261,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -693,7 +702,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +729,27 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -821,17 +851,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>总盈亏</c:v>
+            <c:v>做市盈亏</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$17</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -879,16 +909,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>201707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$17</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -936,6 +972,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10987557.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11084754.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11190719.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326603264"/>
-        <c:axId val="388668736"/>
+        <c:axId val="122717184"/>
+        <c:axId val="184909824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326603264"/>
+        <c:axId val="122717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388668736"/>
+        <c:crossAx val="184909824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388668736"/>
+        <c:axId val="184909824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326603264"/>
+        <c:crossAx val="122717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,10 +1083,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$17</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1092,16 +1134,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>201707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$17</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1149,6 +1197,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>808241.5700000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97196.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105964.90999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1217,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="326604288"/>
-        <c:axId val="421299328"/>
+        <c:axId val="122717696"/>
+        <c:axId val="185410688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326604288"/>
+        <c:axId val="122717696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421299328"/>
+        <c:crossAx val="185410688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1185,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421299328"/>
+        <c:axId val="185410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326604288"/>
+        <c:crossAx val="122717696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,13 +1278,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1254,13 +1308,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1570,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1875,11 +1929,69 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="1">
+        <v>201708</v>
+      </c>
+      <c r="B18" s="3">
+        <v>150526</v>
+      </c>
+      <c r="C18" s="3">
+        <v>97196.520000000019</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12814870</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11084754.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>201709</v>
+      </c>
+      <c r="B19" s="3">
+        <v>173845</v>
+      </c>
+      <c r="C19" s="3">
+        <v>105964.90999999992</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12988715</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11190719.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -851,17 +851,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>做市盈亏</c:v>
+            <c:v>做市总盈亏</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$19</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -915,16 +915,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>201709</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$19</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -978,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11190719.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13624224.029999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,11 +1000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122717184"/>
-        <c:axId val="184909824"/>
+        <c:axId val="92427264"/>
+        <c:axId val="262572864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122717184"/>
+        <c:axId val="92427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184909824"/>
+        <c:crossAx val="262572864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184909824"/>
+        <c:axId val="262572864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122717184"/>
+        <c:crossAx val="92427264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1083,10 +1089,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$19</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1140,16 +1146,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>201709</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$19</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1203,6 +1212,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>105964.90999999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1986576.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,11 +1229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122717696"/>
-        <c:axId val="185410688"/>
+        <c:axId val="92428288"/>
+        <c:axId val="262574592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122717696"/>
+        <c:axId val="92428288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185410688"/>
+        <c:crossAx val="262574592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185410688"/>
+        <c:axId val="262574592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122717696"/>
+        <c:crossAx val="92428288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,13 +1290,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1308,13 +1320,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1624,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,35 +1975,59 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="A20" s="1">
+        <v>201710</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2061670</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1986576.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15050385</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13624224.029999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="15"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,38 +718,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -858,10 +861,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$20</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -918,16 +921,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>201710</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$20</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -984,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>13624224.029999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14118429.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,11 +1009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92427264"/>
-        <c:axId val="262572864"/>
+        <c:axId val="350158336"/>
+        <c:axId val="284724032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92427264"/>
+        <c:axId val="350158336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262572864"/>
+        <c:crossAx val="284724032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262572864"/>
+        <c:axId val="284724032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92427264"/>
+        <c:crossAx val="350158336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,15 +1093,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>期权做市每月盈亏</c:v>
+            <c:v>期权做市月度盈亏</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$20</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1149,16 +1158,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>201710</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$20</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1215,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1986576.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>494204.99000000022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,11 +1244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92428288"/>
-        <c:axId val="262574592"/>
+        <c:axId val="351318016"/>
+        <c:axId val="284725760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92428288"/>
+        <c:axId val="351318016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262574592"/>
+        <c:crossAx val="284725760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262574592"/>
+        <c:axId val="284725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92428288"/>
+        <c:crossAx val="351318016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1992,11 +2007,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="1">
+        <v>201711</v>
+      </c>
+      <c r="B21" s="3">
+        <v>588755</v>
+      </c>
+      <c r="C21" s="3">
+        <v>494204.99000000022</v>
+      </c>
+      <c r="D21" s="3">
+        <v>15639140</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14118429.02</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -2006,28 +2031,28 @@
       <c r="E22" s="3"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="15"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="15"/>
+      <c r="B63" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2039,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C20:K39"/>
+  <dimension ref="C20:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,355 +2075,435 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="5">
-        <v>42825</v>
-      </c>
-      <c r="D21" s="6">
-        <v>210532.22000000009</v>
-      </c>
-      <c r="E21" s="6">
-        <v>330657.13</v>
-      </c>
-      <c r="F21" s="6">
-        <v>4531653</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4200995.87</v>
+      <c r="C21" s="15">
+        <v>43039</v>
+      </c>
+      <c r="D21" s="16">
+        <v>734859.15000000037</v>
+      </c>
+      <c r="E21" s="16">
+        <v>857411.1799999997</v>
+      </c>
+      <c r="F21" s="16">
+        <v>10816778</v>
+      </c>
+      <c r="G21" s="16">
+        <v>9959366.8200000003</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="5">
-        <v>42830</v>
-      </c>
-      <c r="D22" s="6">
-        <v>213542.33000000007</v>
-      </c>
-      <c r="E22" s="6">
-        <v>335566.49</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4607254</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4271687.51</v>
+      <c r="C22" s="15">
+        <v>43040</v>
+      </c>
+      <c r="D22" s="16">
+        <v>736947.9300000004</v>
+      </c>
+      <c r="E22" s="16">
+        <v>862419.32999999961</v>
+      </c>
+      <c r="F22" s="16">
+        <v>10904769</v>
+      </c>
+      <c r="G22" s="16">
+        <v>10042349.67</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="5">
-        <v>42831</v>
-      </c>
-      <c r="D23" s="6">
-        <v>221941.09000000008</v>
-      </c>
-      <c r="E23" s="6">
-        <v>340138.04000000004</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4750855</v>
-      </c>
-      <c r="G23" s="6">
-        <v>4410716.96</v>
+      <c r="C23" s="15">
+        <v>43041</v>
+      </c>
+      <c r="D23" s="16">
+        <v>739845.19000000041</v>
+      </c>
+      <c r="E23" s="16">
+        <v>865302.8199999996</v>
+      </c>
+      <c r="F23" s="16">
+        <v>10958753</v>
+      </c>
+      <c r="G23" s="16">
+        <v>10093450.18</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="5">
-        <v>42832</v>
-      </c>
-      <c r="D24" s="6">
-        <v>223269.85000000009</v>
-      </c>
-      <c r="E24" s="6">
-        <v>344676.25</v>
-      </c>
-      <c r="F24" s="6">
-        <v>4747833</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4403156.75</v>
+      <c r="C24" s="15">
+        <v>43042</v>
+      </c>
+      <c r="D24" s="16">
+        <v>740519.16000000038</v>
+      </c>
+      <c r="E24" s="16">
+        <v>868620.27999999956</v>
+      </c>
+      <c r="F24" s="16">
+        <v>10871009</v>
+      </c>
+      <c r="G24" s="16">
+        <v>10002388.720000001</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="5">
-        <v>42835</v>
-      </c>
-      <c r="D25" s="6">
-        <v>225799.02000000014</v>
-      </c>
-      <c r="E25" s="6">
-        <v>345620.62999999989</v>
-      </c>
-      <c r="F25" s="6">
-        <v>4826169</v>
-      </c>
-      <c r="G25" s="6">
-        <v>4480548.37</v>
+      <c r="C25" s="15">
+        <v>43045</v>
+      </c>
+      <c r="D25" s="16">
+        <v>741305.73000000045</v>
+      </c>
+      <c r="E25" s="16">
+        <v>871597.32999999961</v>
+      </c>
+      <c r="F25" s="16">
+        <v>10767606</v>
+      </c>
+      <c r="G25" s="16">
+        <v>9896008.6699999999</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="5">
-        <v>42836</v>
-      </c>
-      <c r="D26" s="6">
-        <v>225799.02000000014</v>
-      </c>
-      <c r="E26" s="6">
-        <v>349838.24999999988</v>
-      </c>
-      <c r="F26" s="6">
-        <v>4504932</v>
-      </c>
-      <c r="G26" s="6">
-        <v>4155093.75</v>
+      <c r="C26" s="15">
+        <v>43046</v>
+      </c>
+      <c r="D26" s="16">
+        <v>742024.91000000038</v>
+      </c>
+      <c r="E26" s="16">
+        <v>877091.61999999965</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10960139</v>
+      </c>
+      <c r="G26" s="16">
+        <v>10083047.380000001</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="5">
-        <v>42837</v>
-      </c>
-      <c r="D27" s="6">
-        <v>226786.12000000011</v>
-      </c>
-      <c r="E27" s="6">
-        <v>352834.67999999993</v>
-      </c>
-      <c r="F27" s="6">
-        <v>4724738</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4371903.32</v>
+      <c r="C27" s="15">
+        <v>43047</v>
+      </c>
+      <c r="D27" s="16">
+        <v>742339.97000000044</v>
+      </c>
+      <c r="E27" s="16">
+        <v>880560.57999999961</v>
+      </c>
+      <c r="F27" s="16">
+        <v>10661248</v>
+      </c>
+      <c r="G27" s="16">
+        <v>9780687.4199999999</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="5">
-        <v>42838</v>
-      </c>
-      <c r="D28" s="6">
-        <v>227755.70000000007</v>
-      </c>
-      <c r="E28" s="6">
-        <v>355872.19999999995</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4724738</v>
-      </c>
-      <c r="G28" s="6">
-        <v>4368865.8</v>
+      <c r="C28" s="15">
+        <v>43048</v>
+      </c>
+      <c r="D28" s="16">
+        <v>765275.60000000033</v>
+      </c>
+      <c r="E28" s="16">
+        <v>882612.21999999951</v>
+      </c>
+      <c r="F28" s="16">
+        <v>11041642</v>
+      </c>
+      <c r="G28" s="16">
+        <v>10159029.780000001</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="5">
-        <v>42839</v>
-      </c>
-      <c r="D29" s="6">
-        <v>228624.04000000004</v>
-      </c>
-      <c r="E29" s="6">
-        <v>358294.57999999996</v>
-      </c>
-      <c r="F29" s="6">
-        <v>4705759</v>
-      </c>
-      <c r="G29" s="6">
-        <v>4347464.42</v>
+      <c r="C29" s="15">
+        <v>43049</v>
+      </c>
+      <c r="D29" s="16">
+        <v>775505.75</v>
+      </c>
+      <c r="E29" s="16">
+        <v>887586.56</v>
+      </c>
+      <c r="F29" s="16">
+        <v>11176783</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10289196.439999999</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="5">
-        <v>42842</v>
-      </c>
-      <c r="D30" s="6">
-        <v>228624.04000000004</v>
-      </c>
-      <c r="E30" s="6">
-        <v>361256.06999999983</v>
-      </c>
-      <c r="F30" s="6">
-        <v>4742042</v>
-      </c>
-      <c r="G30" s="6">
-        <v>4380785.93</v>
+      <c r="C30" s="15">
+        <v>43052</v>
+      </c>
+      <c r="D30" s="16">
+        <v>773430.39000000036</v>
+      </c>
+      <c r="E30" s="16">
+        <v>888817.19999999949</v>
+      </c>
+      <c r="F30" s="16">
+        <v>11083317</v>
+      </c>
+      <c r="G30" s="16">
+        <v>10194499.800000001</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="5">
-        <v>42843</v>
-      </c>
-      <c r="D31" s="6">
-        <v>228853.76000000001</v>
-      </c>
-      <c r="E31" s="6">
-        <v>362603.66999999993</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4847762</v>
-      </c>
-      <c r="G31" s="6">
-        <v>4485158.33</v>
+      <c r="C31" s="15">
+        <v>43053</v>
+      </c>
+      <c r="D31" s="16">
+        <v>781058.77000000025</v>
+      </c>
+      <c r="E31" s="16">
+        <v>894287.72999999952</v>
+      </c>
+      <c r="F31" s="16">
+        <v>10858851</v>
+      </c>
+      <c r="G31" s="16">
+        <v>9964563.2699999996</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="5">
-        <v>42844</v>
-      </c>
-      <c r="D32" s="6">
-        <v>229073.47999999998</v>
-      </c>
-      <c r="E32" s="6">
-        <v>366710.1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>4893507</v>
-      </c>
-      <c r="G32" s="6">
-        <v>4526796.9000000004</v>
+      <c r="C32" s="15">
+        <v>43054</v>
+      </c>
+      <c r="D32" s="16">
+        <v>788347.85000000033</v>
+      </c>
+      <c r="E32" s="16">
+        <v>898059.46999999974</v>
+      </c>
+      <c r="F32" s="16">
+        <v>10796859</v>
+      </c>
+      <c r="G32" s="16">
+        <v>9898799.5300000012</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C33" s="5">
-        <v>42845</v>
-      </c>
-      <c r="D33" s="6">
-        <v>231005.54999999993</v>
-      </c>
-      <c r="E33" s="6">
-        <v>368148.69999999995</v>
-      </c>
-      <c r="F33" s="6">
-        <v>5161164</v>
-      </c>
-      <c r="G33" s="6">
-        <v>4793015.3</v>
+      <c r="C33" s="15">
+        <v>43055</v>
+      </c>
+      <c r="D33" s="16">
+        <v>806141.5700000003</v>
+      </c>
+      <c r="E33" s="16">
+        <v>904862.93999999948</v>
+      </c>
+      <c r="F33" s="16">
+        <v>10850437</v>
+      </c>
+      <c r="G33" s="16">
+        <v>9945574.0600000005</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C34" s="5">
-        <v>42846</v>
-      </c>
-      <c r="D34" s="6">
-        <v>232240.86</v>
-      </c>
-      <c r="E34" s="6">
-        <v>372441.18000000005</v>
-      </c>
-      <c r="F34" s="6">
-        <v>5023064</v>
-      </c>
-      <c r="G34" s="6">
-        <v>4650622.82</v>
+      <c r="C34" s="15">
+        <v>43056</v>
+      </c>
+      <c r="D34" s="16">
+        <v>823935.29</v>
+      </c>
+      <c r="E34" s="16">
+        <v>911666.40999999992</v>
+      </c>
+      <c r="F34" s="16">
+        <v>10904015</v>
+      </c>
+      <c r="G34" s="16">
+        <v>9992348.5899999999</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C35" s="5">
-        <v>42849</v>
-      </c>
-      <c r="D35" s="6">
-        <v>232240.86</v>
-      </c>
-      <c r="E35" s="6">
-        <v>375722.50999999989</v>
-      </c>
-      <c r="F35" s="6">
-        <v>4617942</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4242219.49</v>
+      <c r="C35" s="15">
+        <v>43059</v>
+      </c>
+      <c r="D35" s="16">
+        <v>813121.06000000029</v>
+      </c>
+      <c r="E35" s="16">
+        <v>910022.79999999958</v>
+      </c>
+      <c r="F35" s="16">
+        <v>11302450</v>
+      </c>
+      <c r="G35" s="16">
+        <v>10392427.200000001</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C36" s="5">
-        <v>42850</v>
-      </c>
-      <c r="D36" s="6">
-        <v>233938.36</v>
-      </c>
-      <c r="E36" s="6">
-        <v>379667.52999999991</v>
-      </c>
-      <c r="F36" s="6">
-        <v>4876083</v>
-      </c>
-      <c r="G36" s="6">
-        <v>4496415.47</v>
+      <c r="C36" s="15">
+        <v>43060</v>
+      </c>
+      <c r="D36" s="16">
+        <v>817114.91000000038</v>
+      </c>
+      <c r="E36" s="16">
+        <v>913259.80999999959</v>
+      </c>
+      <c r="F36" s="16">
+        <v>11072419</v>
+      </c>
+      <c r="G36" s="16">
+        <v>10159159.190000001</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C37" s="5">
-        <v>42851</v>
-      </c>
-      <c r="D37" s="6">
-        <v>236234.89</v>
-      </c>
-      <c r="E37" s="6">
-        <v>386182.74999999988</v>
-      </c>
-      <c r="F37" s="6">
-        <v>4968484</v>
-      </c>
-      <c r="G37" s="6">
-        <v>4582301.25</v>
+      <c r="C37" s="15">
+        <v>43061</v>
+      </c>
+      <c r="D37" s="16">
+        <v>821108.76</v>
+      </c>
+      <c r="E37" s="16">
+        <v>915644.97999999952</v>
+      </c>
+      <c r="F37" s="16">
+        <v>10933416</v>
+      </c>
+      <c r="G37" s="16">
+        <v>10017771.02</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C38" s="5">
-        <v>42852</v>
-      </c>
-      <c r="D38" s="6">
-        <v>246502.40000000002</v>
-      </c>
-      <c r="E38" s="6">
-        <v>390633.12999999989</v>
-      </c>
-      <c r="F38" s="6">
-        <v>5041490</v>
-      </c>
-      <c r="G38" s="6">
-        <v>4650856.87</v>
+      <c r="C38" s="15">
+        <v>43062</v>
+      </c>
+      <c r="D38" s="16">
+        <v>828369.64000000036</v>
+      </c>
+      <c r="E38" s="16">
+        <v>919286.58999999962</v>
+      </c>
+      <c r="F38" s="16">
+        <v>11259778</v>
+      </c>
+      <c r="G38" s="16">
+        <v>10340491.41</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C39" s="5">
-        <v>42853</v>
-      </c>
-      <c r="D39" s="6">
-        <v>251023.27000000002</v>
-      </c>
-      <c r="E39" s="6">
-        <v>393879.83999999997</v>
-      </c>
-      <c r="F39" s="6">
-        <v>5018850</v>
-      </c>
-      <c r="G39" s="6">
-        <v>4624970.16</v>
-      </c>
-      <c r="J39" s="7">
-        <f>F39-F21</f>
-        <v>487197</v>
-      </c>
-      <c r="K39" s="7">
-        <f>G39-G21</f>
-        <v>423974.29000000004</v>
+      <c r="C39" s="15">
+        <v>43063</v>
+      </c>
+      <c r="D39" s="16">
+        <v>831838.13000000035</v>
+      </c>
+      <c r="E39" s="16">
+        <v>925952.12999999966</v>
+      </c>
+      <c r="F39" s="16">
+        <v>11104258</v>
+      </c>
+      <c r="G39" s="16">
+        <v>10178305.870000001</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C40" s="15">
+        <v>43066</v>
+      </c>
+      <c r="D40" s="16">
+        <v>835113.19000000041</v>
+      </c>
+      <c r="E40" s="16">
+        <v>930920.15999999968</v>
+      </c>
+      <c r="F40" s="16">
+        <v>11272148</v>
+      </c>
+      <c r="G40" s="16">
+        <v>10341227.84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C41" s="15">
+        <v>43067</v>
+      </c>
+      <c r="D41" s="16">
+        <v>836867.64000000036</v>
+      </c>
+      <c r="E41" s="16">
+        <v>938981.71999999974</v>
+      </c>
+      <c r="F41" s="16">
+        <v>11440038</v>
+      </c>
+      <c r="G41" s="16">
+        <v>10501056.280000001</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C42" s="15">
+        <v>43068</v>
+      </c>
+      <c r="D42" s="16">
+        <v>840236.12000000034</v>
+      </c>
+      <c r="E42" s="16">
+        <v>946529.34999999963</v>
+      </c>
+      <c r="F42" s="16">
+        <v>11366022</v>
+      </c>
+      <c r="G42" s="16">
+        <v>10419492.65</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C43" s="15">
+        <v>43069</v>
+      </c>
+      <c r="D43" s="16">
+        <v>844176.39000000036</v>
+      </c>
+      <c r="E43" s="16">
+        <v>951961.18999999971</v>
+      </c>
+      <c r="F43" s="16">
+        <v>11405533</v>
+      </c>
+      <c r="G43" s="16">
+        <v>10453571.810000001</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D48" s="14">
+        <f>D43-D21</f>
+        <v>109317.23999999999</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" ref="E48:G48" si="0">E43-E21</f>
+        <v>94550.010000000009</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="0"/>
+        <v>588755</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="0"/>
+        <v>494204.99000000022</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +744,15 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -861,10 +870,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$21</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -924,16 +933,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>201711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$2:$E$21</c:f>
+              <c:f>期权做市每月盈亏统计!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -993,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>14118429.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15439304.640000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="350158336"/>
-        <c:axId val="284724032"/>
+        <c:axId val="416630272"/>
+        <c:axId val="294053568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="350158336"/>
+        <c:axId val="416630272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284724032"/>
+        <c:crossAx val="294053568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284724032"/>
+        <c:axId val="294053568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="350158336"/>
+        <c:crossAx val="416630272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1098,10 +1113,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$21</c:f>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>201604</c:v>
                 </c:pt>
@@ -1161,16 +1176,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>201711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$21</c:f>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
                 </c:pt>
@@ -1230,6 +1248,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>494204.99000000022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320875.6199999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,11 +1265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="351318016"/>
-        <c:axId val="284725760"/>
+        <c:axId val="416630784"/>
+        <c:axId val="294055296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351318016"/>
+        <c:axId val="416630784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284725760"/>
+        <c:crossAx val="294055296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1266,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284725760"/>
+        <c:axId val="294055296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351318016"/>
+        <c:crossAx val="416630784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1653,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2024,11 +2045,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="1">
+        <v>201712</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1400458</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1320875.6199999992</v>
+      </c>
+      <c r="D22" s="3">
+        <v>17039598</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15439304.640000001</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
@@ -2066,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C20:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,414 +2127,404 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="15">
-        <v>43039</v>
-      </c>
-      <c r="D21" s="16">
-        <v>734859.15000000037</v>
-      </c>
-      <c r="E21" s="16">
-        <v>857411.1799999997</v>
-      </c>
-      <c r="F21" s="16">
-        <v>10816778</v>
-      </c>
-      <c r="G21" s="16">
-        <v>9959366.8200000003</v>
+      <c r="C21" s="18">
+        <v>43069</v>
+      </c>
+      <c r="D21" s="19">
+        <v>844176.39000000036</v>
+      </c>
+      <c r="E21" s="19">
+        <v>951961.18999999971</v>
+      </c>
+      <c r="F21" s="19">
+        <v>11405533</v>
+      </c>
+      <c r="G21" s="19">
+        <v>10453571.810000001</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="15">
-        <v>43040</v>
-      </c>
-      <c r="D22" s="16">
-        <v>736947.9300000004</v>
-      </c>
-      <c r="E22" s="16">
-        <v>862419.32999999961</v>
-      </c>
-      <c r="F22" s="16">
-        <v>10904769</v>
-      </c>
-      <c r="G22" s="16">
-        <v>10042349.67</v>
+      <c r="C22" s="18">
+        <v>43070</v>
+      </c>
+      <c r="D22" s="19">
+        <v>846768.39000000036</v>
+      </c>
+      <c r="E22" s="19">
+        <v>956678.96999999974</v>
+      </c>
+      <c r="F22" s="19">
+        <v>11768333</v>
+      </c>
+      <c r="G22" s="19">
+        <v>10811654.030000001</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="15">
-        <v>43041</v>
-      </c>
-      <c r="D23" s="16">
-        <v>739845.19000000041</v>
-      </c>
-      <c r="E23" s="16">
-        <v>865302.8199999996</v>
-      </c>
-      <c r="F23" s="16">
-        <v>10958753</v>
-      </c>
-      <c r="G23" s="16">
-        <v>10093450.18</v>
+      <c r="C23" s="18">
+        <v>43073</v>
+      </c>
+      <c r="D23" s="19">
+        <v>849090.99000000046</v>
+      </c>
+      <c r="E23" s="19">
+        <v>963900.63999999966</v>
+      </c>
+      <c r="F23" s="19">
+        <v>12092867</v>
+      </c>
+      <c r="G23" s="19">
+        <v>11128966.359999999</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="15">
-        <v>43042</v>
-      </c>
-      <c r="D24" s="16">
-        <v>740519.16000000038</v>
-      </c>
-      <c r="E24" s="16">
-        <v>868620.27999999956</v>
-      </c>
-      <c r="F24" s="16">
-        <v>10871009</v>
-      </c>
-      <c r="G24" s="16">
-        <v>10002388.720000001</v>
+      <c r="C24" s="18">
+        <v>43074</v>
+      </c>
+      <c r="D24" s="19">
+        <v>851641.6800000004</v>
+      </c>
+      <c r="E24" s="19">
+        <v>968918.34999999963</v>
+      </c>
+      <c r="F24" s="19">
+        <v>12227392</v>
+      </c>
+      <c r="G24" s="19">
+        <v>11258473.65</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="15">
-        <v>43045</v>
-      </c>
-      <c r="D25" s="16">
-        <v>741305.73000000045</v>
-      </c>
-      <c r="E25" s="16">
-        <v>871597.32999999961</v>
-      </c>
-      <c r="F25" s="16">
-        <v>10767606</v>
-      </c>
-      <c r="G25" s="16">
-        <v>9896008.6699999999</v>
+      <c r="C25" s="18">
+        <v>43075</v>
+      </c>
+      <c r="D25" s="19">
+        <v>853587.4300000004</v>
+      </c>
+      <c r="E25" s="19">
+        <v>973290.55999999959</v>
+      </c>
+      <c r="F25" s="19">
+        <v>12319586</v>
+      </c>
+      <c r="G25" s="19">
+        <v>11346295.440000001</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="15">
-        <v>43046</v>
-      </c>
-      <c r="D26" s="16">
-        <v>742024.91000000038</v>
-      </c>
-      <c r="E26" s="16">
-        <v>877091.61999999965</v>
-      </c>
-      <c r="F26" s="16">
-        <v>10960139</v>
-      </c>
-      <c r="G26" s="16">
-        <v>10083047.380000001</v>
+      <c r="C26" s="18">
+        <v>43076</v>
+      </c>
+      <c r="D26" s="19">
+        <v>862246.35000000033</v>
+      </c>
+      <c r="E26" s="19">
+        <v>974921.87999999989</v>
+      </c>
+      <c r="F26" s="19">
+        <v>12464918</v>
+      </c>
+      <c r="G26" s="19">
+        <v>11489996.120000001</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="15">
-        <v>43047</v>
-      </c>
-      <c r="D27" s="16">
-        <v>742339.97000000044</v>
-      </c>
-      <c r="E27" s="16">
-        <v>880560.57999999961</v>
-      </c>
-      <c r="F27" s="16">
-        <v>10661248</v>
-      </c>
-      <c r="G27" s="16">
-        <v>9780687.4199999999</v>
+      <c r="C27" s="18">
+        <v>43077</v>
+      </c>
+      <c r="D27" s="19">
+        <v>865139.90000000037</v>
+      </c>
+      <c r="E27" s="19">
+        <v>977283.7899999998</v>
+      </c>
+      <c r="F27" s="19">
+        <v>12452864</v>
+      </c>
+      <c r="G27" s="19">
+        <v>11475580.210000001</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="15">
-        <v>43048</v>
-      </c>
-      <c r="D28" s="16">
-        <v>765275.60000000033</v>
-      </c>
-      <c r="E28" s="16">
-        <v>882612.21999999951</v>
-      </c>
-      <c r="F28" s="16">
-        <v>11041642</v>
-      </c>
-      <c r="G28" s="16">
-        <v>10159029.780000001</v>
+      <c r="C28" s="18">
+        <v>43080</v>
+      </c>
+      <c r="D28" s="19">
+        <v>868676.33000000031</v>
+      </c>
+      <c r="E28" s="19">
+        <v>980201.96</v>
+      </c>
+      <c r="F28" s="19">
+        <v>12394220</v>
+      </c>
+      <c r="G28" s="19">
+        <v>11414018.039999999</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="15">
-        <v>43049</v>
-      </c>
-      <c r="D29" s="16">
-        <v>775505.75</v>
-      </c>
-      <c r="E29" s="16">
-        <v>887586.56</v>
-      </c>
-      <c r="F29" s="16">
-        <v>11176783</v>
-      </c>
-      <c r="G29" s="16">
-        <v>10289196.439999999</v>
+      <c r="C29" s="18">
+        <v>43081</v>
+      </c>
+      <c r="D29" s="19">
+        <v>871623.60000000033</v>
+      </c>
+      <c r="E29" s="19">
+        <v>981835.98999999976</v>
+      </c>
+      <c r="F29" s="19">
+        <v>12541503</v>
+      </c>
+      <c r="G29" s="19">
+        <v>11559667.01</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="15">
-        <v>43052</v>
-      </c>
-      <c r="D30" s="16">
-        <v>773430.39000000036</v>
-      </c>
-      <c r="E30" s="16">
-        <v>888817.19999999949</v>
-      </c>
-      <c r="F30" s="16">
-        <v>11083317</v>
-      </c>
-      <c r="G30" s="16">
-        <v>10194499.800000001</v>
+      <c r="C30" s="18">
+        <v>43082</v>
+      </c>
+      <c r="D30" s="19">
+        <v>875364.69000000041</v>
+      </c>
+      <c r="E30" s="19">
+        <v>987419.88999999966</v>
+      </c>
+      <c r="F30" s="19">
+        <v>12295030</v>
+      </c>
+      <c r="G30" s="19">
+        <v>11307610.109999999</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="15">
-        <v>43053</v>
-      </c>
-      <c r="D31" s="16">
-        <v>781058.77000000025</v>
-      </c>
-      <c r="E31" s="16">
-        <v>894287.72999999952</v>
-      </c>
-      <c r="F31" s="16">
-        <v>10858851</v>
-      </c>
-      <c r="G31" s="16">
-        <v>9964563.2699999996</v>
+      <c r="C31" s="18">
+        <v>43083</v>
+      </c>
+      <c r="D31" s="19">
+        <v>875364.69000000041</v>
+      </c>
+      <c r="E31" s="19">
+        <v>987419.88999999966</v>
+      </c>
+      <c r="F31" s="19">
+        <v>12295030</v>
+      </c>
+      <c r="G31" s="19">
+        <v>11307610.109999999</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="15">
-        <v>43054</v>
-      </c>
-      <c r="D32" s="16">
-        <v>788347.85000000033</v>
-      </c>
-      <c r="E32" s="16">
-        <v>898059.46999999974</v>
-      </c>
-      <c r="F32" s="16">
-        <v>10796859</v>
-      </c>
-      <c r="G32" s="16">
-        <v>9898799.5300000012</v>
+      <c r="C32" s="18">
+        <v>43084</v>
+      </c>
+      <c r="D32" s="19">
+        <v>891055.11000000034</v>
+      </c>
+      <c r="E32" s="19">
+        <v>994515.18999999971</v>
+      </c>
+      <c r="F32" s="19">
+        <v>12342162</v>
+      </c>
+      <c r="G32" s="19">
+        <v>11347646.810000001</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C33" s="15">
-        <v>43055</v>
-      </c>
-      <c r="D33" s="16">
-        <v>806141.5700000003</v>
-      </c>
-      <c r="E33" s="16">
-        <v>904862.93999999948</v>
-      </c>
-      <c r="F33" s="16">
-        <v>10850437</v>
-      </c>
-      <c r="G33" s="16">
-        <v>9945574.0600000005</v>
+      <c r="C33" s="18">
+        <v>43087</v>
+      </c>
+      <c r="D33" s="19">
+        <v>893711.54000000027</v>
+      </c>
+      <c r="E33" s="19">
+        <v>996510.31999999983</v>
+      </c>
+      <c r="F33" s="19">
+        <v>12465303</v>
+      </c>
+      <c r="G33" s="19">
+        <v>11468792.68</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C34" s="15">
-        <v>43056</v>
-      </c>
-      <c r="D34" s="16">
-        <v>823935.29</v>
-      </c>
-      <c r="E34" s="16">
-        <v>911666.40999999992</v>
-      </c>
-      <c r="F34" s="16">
-        <v>10904015</v>
-      </c>
-      <c r="G34" s="16">
-        <v>9992348.5899999999</v>
+      <c r="C34" s="18">
+        <v>43088</v>
+      </c>
+      <c r="D34" s="19">
+        <v>895525.52000000025</v>
+      </c>
+      <c r="E34" s="19">
+        <v>999087.29999999981</v>
+      </c>
+      <c r="F34" s="19">
+        <v>12785709</v>
+      </c>
+      <c r="G34" s="19">
+        <v>11786621.699999999</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C35" s="15">
-        <v>43059</v>
-      </c>
-      <c r="D35" s="16">
-        <v>813121.06000000029</v>
-      </c>
-      <c r="E35" s="16">
-        <v>910022.79999999958</v>
-      </c>
-      <c r="F35" s="16">
-        <v>11302450</v>
-      </c>
-      <c r="G35" s="16">
-        <v>10392427.200000001</v>
+      <c r="C35" s="18">
+        <v>43089</v>
+      </c>
+      <c r="D35" s="19">
+        <v>897464.28000000026</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1000903.6299999994</v>
+      </c>
+      <c r="F35" s="19">
+        <v>12552775</v>
+      </c>
+      <c r="G35" s="19">
+        <v>11551871.370000001</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C36" s="15">
-        <v>43060</v>
-      </c>
-      <c r="D36" s="16">
-        <v>817114.91000000038</v>
-      </c>
-      <c r="E36" s="16">
-        <v>913259.80999999959</v>
-      </c>
-      <c r="F36" s="16">
-        <v>11072419</v>
-      </c>
-      <c r="G36" s="16">
-        <v>10159159.190000001</v>
+      <c r="C36" s="18">
+        <v>43090</v>
+      </c>
+      <c r="D36" s="19">
+        <v>897464.28000000026</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1004058.1899999995</v>
+      </c>
+      <c r="F36" s="19">
+        <v>12791026</v>
+      </c>
+      <c r="G36" s="19">
+        <v>11786967.810000001</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C37" s="15">
-        <v>43061</v>
-      </c>
-      <c r="D37" s="16">
-        <v>821108.76</v>
-      </c>
-      <c r="E37" s="16">
-        <v>915644.97999999952</v>
-      </c>
-      <c r="F37" s="16">
-        <v>10933416</v>
-      </c>
-      <c r="G37" s="16">
-        <v>10017771.02</v>
+      <c r="C37" s="18">
+        <v>43091</v>
+      </c>
+      <c r="D37" s="19">
+        <v>898117.7100000002</v>
+      </c>
+      <c r="E37" s="19">
+        <v>1008243.0099999995</v>
+      </c>
+      <c r="F37" s="19">
+        <v>12526640</v>
+      </c>
+      <c r="G37" s="19">
+        <v>11518396.99</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C38" s="15">
-        <v>43062</v>
-      </c>
-      <c r="D38" s="16">
-        <v>828369.64000000036</v>
-      </c>
-      <c r="E38" s="16">
-        <v>919286.58999999962</v>
-      </c>
-      <c r="F38" s="16">
-        <v>11259778</v>
-      </c>
-      <c r="G38" s="16">
-        <v>10340491.41</v>
+      <c r="C38" s="18">
+        <v>43094</v>
+      </c>
+      <c r="D38" s="19">
+        <v>898638.26000000024</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1013227.5599999996</v>
+      </c>
+      <c r="F38" s="19">
+        <v>12484543</v>
+      </c>
+      <c r="G38" s="19">
+        <v>11471315.440000001</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C39" s="15">
-        <v>43063</v>
-      </c>
-      <c r="D39" s="16">
-        <v>831838.13000000035</v>
-      </c>
-      <c r="E39" s="16">
-        <v>925952.12999999966</v>
-      </c>
-      <c r="F39" s="16">
-        <v>11104258</v>
-      </c>
-      <c r="G39" s="16">
-        <v>10178305.870000001</v>
+      <c r="C39" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D39" s="19">
+        <v>899860.19000000018</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1016695.5199999996</v>
+      </c>
+      <c r="F39" s="19">
+        <v>12430863</v>
+      </c>
+      <c r="G39" s="19">
+        <v>11414167.48</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C40" s="15">
-        <v>43066</v>
-      </c>
-      <c r="D40" s="16">
-        <v>835113.19000000041</v>
-      </c>
-      <c r="E40" s="16">
-        <v>930920.15999999968</v>
-      </c>
-      <c r="F40" s="16">
-        <v>11272148</v>
-      </c>
-      <c r="G40" s="16">
-        <v>10341227.84</v>
+      <c r="C40" s="18">
+        <v>43096</v>
+      </c>
+      <c r="D40" s="19">
+        <v>904725.68000000017</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1023758.6899999995</v>
+      </c>
+      <c r="F40" s="19">
+        <v>12247195</v>
+      </c>
+      <c r="G40" s="19">
+        <v>11223436.310000001</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C41" s="15">
-        <v>43067</v>
-      </c>
-      <c r="D41" s="16">
-        <v>836867.64000000036</v>
-      </c>
-      <c r="E41" s="16">
-        <v>938981.71999999974</v>
-      </c>
-      <c r="F41" s="16">
-        <v>11440038</v>
-      </c>
-      <c r="G41" s="16">
-        <v>10501056.280000001</v>
+      <c r="C41" s="18">
+        <v>43097</v>
+      </c>
+      <c r="D41" s="19">
+        <v>947465.67000000016</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1026549.1399999997</v>
+      </c>
+      <c r="F41" s="19">
+        <v>12645468</v>
+      </c>
+      <c r="G41" s="19">
+        <v>11618918.859999999</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C42" s="15">
-        <v>43068</v>
-      </c>
-      <c r="D42" s="16">
-        <v>840236.12000000034</v>
-      </c>
-      <c r="E42" s="16">
-        <v>946529.34999999963</v>
-      </c>
-      <c r="F42" s="16">
-        <v>11366022</v>
-      </c>
-      <c r="G42" s="16">
-        <v>10419492.65</v>
+      <c r="C42" s="18">
+        <v>43098</v>
+      </c>
+      <c r="D42" s="19">
+        <v>982890.03000000026</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1031543.5699999994</v>
+      </c>
+      <c r="F42" s="19">
+        <v>12805991</v>
+      </c>
+      <c r="G42" s="19">
+        <v>11774447.43</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C43" s="15">
-        <v>43069</v>
-      </c>
-      <c r="D43" s="16">
-        <v>844176.39000000036</v>
-      </c>
-      <c r="E43" s="16">
-        <v>951961.18999999971</v>
-      </c>
-      <c r="F43" s="16">
-        <v>11405533</v>
-      </c>
-      <c r="G43" s="16">
-        <v>10453571.810000001</v>
-      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D48" s="14">
-        <f>D43-D21</f>
-        <v>109317.23999999999</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" ref="E48:G48" si="0">E43-E21</f>
-        <v>94550.010000000009</v>
-      </c>
-      <c r="F48" s="14">
+        <f>D42-D21</f>
+        <v>138713.6399999999</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" ref="E48:G48" si="0">E42-E21</f>
+        <v>79582.379999999655</v>
+      </c>
+      <c r="F48" s="17">
         <f t="shared" si="0"/>
-        <v>588755</v>
-      </c>
-      <c r="G48" s="14">
+        <v>1400458</v>
+      </c>
+      <c r="G48" s="17">
         <f t="shared" si="0"/>
-        <v>494204.99000000022</v>
+        <v>1320875.6199999992</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="285" yWindow="105" windowWidth="3810" windowHeight="5565"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="期权做市每月盈亏统计" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -52,10 +57,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
@@ -712,9 +716,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,26 +764,29 @@
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -799,15 +803,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,12 +820,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -944,7 +951,7 @@
             <c:numRef>
               <c:f>期权做市每月盈亏统计!$E$2:$E$22</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_ </c:formatCode>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16626</c:v>
@@ -1013,6 +1020,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCD7-4016-84BD-222E8DEFC88C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1022,7 +1034,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="416630272"/>
         <c:axId val="294053568"/>
@@ -1053,7 +1064,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1080,7 +1091,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1094,6 +1105,25 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2018</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市月度盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1108,153 +1138,44 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>期权做市月度盈亏</c:v>
+            <c:v>月度盈亏</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$2:$A$22</c:f>
+              <c:f>期权做市每月盈亏统计!$A$23:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>201604</c:v>
+                  <c:v>201801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201606</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201607</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201608</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201610</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201612</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>201703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>201704</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>201705</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>201706</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>201707</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>201708</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>201709</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>201710</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>201711</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>201712</c:v>
+                  <c:v>201802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$2:$C$22</c:f>
+              <c:f>期权做市每月盈亏统计!$C$23:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16626</c:v>
+                  <c:v>288025.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43837</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52585.149999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>445177.29999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68880.310000000056</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>440875.34999999986</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>602859.42000000016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1067399.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>926616.87999999989</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2018835.33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>244051.33000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1948831.21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>423974.29000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1439276.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>853898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>808241.5700000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>97196.520000000019</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105964.90999999992</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1986576.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>494204.99000000022</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320875.6199999992</c:v>
+                  <c:v>792371.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9924-4E79-B64F-CF658A767F56}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1294,7 +1215,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1320,20 +1241,174 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2018</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>月度汇总盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2018期权做市盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>期权做市每月盈亏统计!$A$23:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>201801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>期权做市每月盈亏统计!$E$23:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>288025.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1080396.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD73-440D-BB8E-ADCB87B0591F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="416630272"/>
+        <c:axId val="294053568"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="416630272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="294053568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="294053568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="416630272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2175510</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1355,15 +1430,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1377,6 +1452,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,7 +1535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,7 +1570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1691,16 +1798,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1708,16 +1815,16 @@
       <c r="A2" s="1">
         <v>201604</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="19">
         <v>16626</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="19">
         <v>16626</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="19">
         <v>16626</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="19">
         <v>16626</v>
       </c>
     </row>
@@ -1725,16 +1832,16 @@
       <c r="A3" s="1">
         <v>201605</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>43837</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="19">
         <v>43837</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="19">
         <v>60463</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="19">
         <v>60463</v>
       </c>
     </row>
@@ -1742,16 +1849,16 @@
       <c r="A4" s="1">
         <v>201606</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="19">
         <v>55451</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="19">
         <v>52585.149999999994</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19">
         <v>115914</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="19">
         <v>113048.15</v>
       </c>
     </row>
@@ -1759,16 +1866,16 @@
       <c r="A5" s="1">
         <v>201607</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="19">
         <v>456318</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="19">
         <v>445177.29999999993</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>572232</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="19">
         <v>558225.44999999995</v>
       </c>
     </row>
@@ -1776,16 +1883,16 @@
       <c r="A6" s="1">
         <v>201608</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="19">
         <v>262894</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="19">
         <v>68880.310000000056</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="19">
         <v>835126</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>627105.76</v>
       </c>
     </row>
@@ -1793,16 +1900,16 @@
       <c r="A7" s="1">
         <v>201609</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <v>503677</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="19">
         <v>440875.34999999986</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="19">
         <v>1338803</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="19">
         <v>1067981.1099999999</v>
       </c>
     </row>
@@ -1810,16 +1917,16 @@
       <c r="A8" s="1">
         <v>201610</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="19">
         <v>669668</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="19">
         <v>602859.42000000016</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="19">
         <v>2008471</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <v>1670840.53</v>
       </c>
     </row>
@@ -1827,16 +1934,16 @@
       <c r="A9" s="1">
         <v>201611</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="19">
         <v>1172202</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="19">
         <v>1067399.8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19">
         <v>3180673</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="19">
         <v>2738240.33</v>
       </c>
     </row>
@@ -1844,16 +1951,16 @@
       <c r="A10" s="1">
         <v>201612</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>1052934</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>926616.87999999989</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="19">
         <v>4233607</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="19">
         <v>3664857.21</v>
       </c>
     </row>
@@ -1861,16 +1968,16 @@
       <c r="A11" s="1">
         <v>201701</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>2083077</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>2018835.33</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <v>6316684</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>5683692.54</v>
       </c>
     </row>
@@ -1878,16 +1985,16 @@
       <c r="A12" s="1">
         <v>201702</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="19">
         <v>342916</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="19">
         <v>244051.33000000007</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="19">
         <v>6659600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="19">
         <v>5927743.8700000001</v>
       </c>
     </row>
@@ -1895,16 +2002,16 @@
       <c r="A13" s="1">
         <v>201703</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="19">
         <v>2116382</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="19">
         <v>1948831.21</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="19">
         <v>8765260</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="19">
         <v>7865853.0800000001</v>
       </c>
     </row>
@@ -1912,16 +2019,16 @@
       <c r="A14" s="1">
         <v>201704</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="19">
         <v>487197</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="19">
         <v>423974.29000000004</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="19">
         <v>9252457</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="19">
         <v>8289827.3700000001</v>
       </c>
     </row>
@@ -1929,16 +2036,16 @@
       <c r="A15" s="1">
         <v>201705</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="19">
         <v>1536160</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="19">
         <v>1439276.25</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="19">
         <v>10788617</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="19">
         <v>9729103.6199999992</v>
       </c>
     </row>
@@ -1946,16 +2053,16 @@
       <c r="A16" s="1">
         <v>201706</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="19">
         <v>938497</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="19">
         <v>853898</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="19">
         <v>11776155</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="19">
         <v>10626245</v>
       </c>
     </row>
@@ -1963,16 +2070,16 @@
       <c r="A17" s="1">
         <v>201707</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="19">
         <v>888189</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="19">
         <v>808241.5700000003</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="19">
         <v>12225994</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="19">
         <v>10987557.91</v>
       </c>
     </row>
@@ -1980,16 +2087,16 @@
       <c r="A18" s="1">
         <v>201708</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="19">
         <v>150526</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="19">
         <v>97196.520000000019</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="19">
         <v>12814870</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="19">
         <v>11084754.43</v>
       </c>
     </row>
@@ -1997,16 +2104,16 @@
       <c r="A19" s="1">
         <v>201709</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="19">
         <v>173845</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="19">
         <v>105964.90999999992</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="19">
         <v>12988715</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="19">
         <v>11190719.34</v>
       </c>
     </row>
@@ -2014,16 +2121,16 @@
       <c r="A20" s="1">
         <v>201710</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="19">
         <v>2061670</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="19">
         <v>1986576.5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="19">
         <v>15050385</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="19">
         <v>13624224.029999999</v>
       </c>
     </row>
@@ -2031,16 +2138,16 @@
       <c r="A21" s="1">
         <v>201711</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="19">
         <v>588755</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="19">
         <v>494204.99000000022</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="19">
         <v>15639140</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="19">
         <v>14118429.02</v>
       </c>
     </row>
@@ -2048,42 +2155,76 @@
       <c r="A22" s="1">
         <v>201712</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="19">
         <v>1400458</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="19">
         <v>1320875.6199999992</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="19">
         <v>17039598</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="19">
         <v>15439304.640000001</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>201801</v>
+      </c>
+      <c r="B23" s="19">
+        <v>330287</v>
+      </c>
+      <c r="C23" s="19">
+        <v>288025.05</v>
+      </c>
+      <c r="D23" s="19">
+        <v>330287</v>
+      </c>
+      <c r="E23" s="19">
+        <v>288025.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>201802</v>
+      </c>
+      <c r="B24" s="19">
+        <v>805482</v>
+      </c>
+      <c r="C24" s="19">
+        <v>792371.71</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1135769</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1080396.76</v>
+      </c>
+    </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="10"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="13"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="13"/>
+      <c r="B63" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2113,416 +2254,416 @@
   </cols>
   <sheetData>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>43069</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>844176.39000000036</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>951961.18999999971</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>11405533</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>10453571.810000001</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>43070</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>846768.39000000036</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>956678.96999999974</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>11768333</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>10811654.030000001</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>43073</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>849090.99000000046</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>963900.63999999966</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>12092867</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>11128966.359999999</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>43074</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>851641.6800000004</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>968918.34999999963</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>12227392</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>11258473.65</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>43075</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>853587.4300000004</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>973290.55999999959</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>12319586</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>11346295.440000001</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>43076</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>862246.35000000033</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>974921.87999999989</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>12464918</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>11489996.120000001</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>43077</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>865139.90000000037</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>977283.7899999998</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>12452864</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>11475580.210000001</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>43080</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>868676.33000000031</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>980201.96</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>12394220</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>11414018.039999999</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>43081</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>871623.60000000033</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>981835.98999999976</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>12541503</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>11559667.01</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>43082</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>875364.69000000041</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>987419.88999999966</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>12295030</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>11307610.109999999</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>43083</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>875364.69000000041</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>987419.88999999966</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>12295030</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>11307610.109999999</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>43084</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>891055.11000000034</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>994515.18999999971</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>12342162</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>11347646.810000001</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>43087</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>893711.54000000027</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>996510.31999999983</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>12465303</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>11468792.68</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>43088</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>895525.52000000025</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>999087.29999999981</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <v>12785709</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="18">
         <v>11786621.699999999</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>43089</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>897464.28000000026</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>1000903.6299999994</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>12552775</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>11551871.370000001</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>43090</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>897464.28000000026</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>1004058.1899999995</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>12791026</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>11786967.810000001</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>43091</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>898117.7100000002</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>1008243.0099999995</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>12526640</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>11518396.99</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>43094</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>898638.26000000024</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>1013227.5599999996</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <v>12484543</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="18">
         <v>11471315.440000001</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>43095</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>899860.19000000018</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>1016695.5199999996</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <v>12430863</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <v>11414167.48</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>43096</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>904725.68000000017</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>1023758.6899999995</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>12247195</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>11223436.310000001</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>43097</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>947465.67000000016</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <v>1026549.1399999997</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="18">
         <v>12645468</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>11618918.859999999</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>43098</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>982890.03000000026</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>1031543.5699999994</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>12805991</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <v>11774447.43</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <f>D42-D21</f>
         <v>138713.6399999999</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <f t="shared" ref="E48:G48" si="0">E42-E21</f>
         <v>79582.379999999655</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <f t="shared" si="0"/>
         <v>1400458</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <f t="shared" si="0"/>
         <v>1320875.6199999992</v>
       </c>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -60,7 +60,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,10 +728,10 @@
     <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -740,31 +740,31 @@
     <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +870,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>做市总盈亏</c:v>
+            <c:v>月度盈亏汇总</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1143,30 +1143,36 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$23:$A$24</c:f>
+              <c:f>期权做市每月盈亏统计!$A$23:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>201801</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$C$23:$C$24</c:f>
+              <c:f>期权做市每月盈亏统计!$C$23:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>288025.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>792371.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1320939.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,37 +1294,43 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2018期权做市盈亏</c:v>
+            <c:v>期权做市盈亏汇总</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$A$23:$A$24</c:f>
+              <c:f>期权做市每月盈亏统计!$A$23:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>201801</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期权做市每月盈亏统计!$E$23:$E$24</c:f>
+              <c:f>期权做市每月盈亏统计!$E$23:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>288025.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1080396.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2401336.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,15 +1412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2175510</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:colOff>2185035</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1460,14 +1472,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1781,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,9 +2191,11 @@
         <v>288025.05</v>
       </c>
       <c r="D23" s="19">
-        <v>330287</v>
+        <f>D22+B23</f>
+        <v>17369885</v>
       </c>
       <c r="E23" s="19">
+        <f>C23</f>
         <v>288025.05</v>
       </c>
     </row>
@@ -2196,10 +2210,31 @@
         <v>792371.71</v>
       </c>
       <c r="D24" s="19">
-        <v>1135769</v>
+        <f>D23+B24</f>
+        <v>18175367</v>
       </c>
       <c r="E24" s="19">
+        <f>SUM(C23:C24)</f>
         <v>1080396.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>201803</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1377808</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1320939.95</v>
+      </c>
+      <c r="D25" s="19">
+        <f>D24+B25</f>
+        <v>19553175</v>
+      </c>
+      <c r="E25" s="19">
+        <f>SUM(C23:C25)</f>
+        <v>2401336.71</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="105" windowWidth="3810" windowHeight="5565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="期权做市每月盈亏统计" sheetId="1" r:id="rId1"/>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B23:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/期权做市月度盈亏统计.xlsx
+++ b/期权做市月度盈亏统计.xlsx
@@ -1793,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
